--- a/output/MOMENTUM/rebalance/rebalance_20240930.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83.09%</t>
+          <t>83.10%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02794525163590296</v>
+        <v>0.02793000798551479</v>
       </c>
       <c r="C2" t="n">
         <v>0.02210610198979251</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005839149646110452</v>
+        <v>-0.005823905995722287</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03053253588069589</v>
+        <v>0.03051585748248652</v>
       </c>
       <c r="C3" t="n">
         <v>0.02208176946146032</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008450766419235568</v>
+        <v>-0.008434088021026204</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02530329402699744</v>
+        <v>0.02528960872566139</v>
       </c>
       <c r="C5" t="n">
         <v>0.02196010681979938</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003343187207198055</v>
+        <v>-0.003329501905862012</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02708510531767391</v>
+        <v>0.02706994759611315</v>
       </c>
       <c r="C7" t="n">
         <v>0.02186277670647063</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.005222328611203277</v>
+        <v>-0.005207170889642523</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02022781837252614</v>
+        <v>0.02021671015200081</v>
       </c>
       <c r="C15" t="n">
         <v>0.02080431172402046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005764933514943206</v>
+        <v>0.0005876015720196574</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02216718074973044</v>
+        <v>0.02215498126075481</v>
       </c>
       <c r="C19" t="n">
         <v>0.02045149006320374</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001715690686526692</v>
+        <v>-0.001703491197551064</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02275514443823444</v>
+        <v>0.02274262272460804</v>
       </c>
       <c r="C22" t="n">
         <v>0.02031766115737671</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.002437483280857727</v>
+        <v>-0.002424961567231331</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0215905167182526</v>
+        <v>0.02157864178394787</v>
       </c>
       <c r="C24" t="n">
         <v>0.02005000334572265</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001540513372529952</v>
+        <v>-0.001528638438225226</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02022117771764144</v>
+        <v>0.02020995316966476</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02022117771764144</v>
+        <v>-0.02020995316966476</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01965574975111409</v>
+        <v>0.01964500337783388</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01965574975111409</v>
+        <v>-0.01964500337783388</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01934242596707481</v>
+        <v>0.01933176603800958</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01934242596707481</v>
+        <v>-0.01933176603800958</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02316790314016571</v>
+        <v>0.02315542836528331</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02316790314016571</v>
+        <v>-0.02315542836528331</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02298551273367283</v>
+        <v>0.02297300399586636</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02298551273367283</v>
+        <v>-0.02297300399586636</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01897239791062363</v>
+        <v>0.01896206344492522</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01897239791062363</v>
+        <v>-0.01896206344492522</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02118111252979333</v>
+        <v>0.0211695287294047</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02118111252979333</v>
+        <v>-0.0211695287294047</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01957613799454489</v>
+        <v>0.01956541836763285</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01957613799454489</v>
+        <v>-0.01956541836763285</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01951594704611252</v>
+        <v>0.01950528855788649</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01951594704611252</v>
+        <v>-0.01950528855788649</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01749260608526878</v>
+        <v>0.01748310838341565</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01749260608526878</v>
+        <v>-0.01748310838341565</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02013016034478031</v>
+        <v>0.02011932204949677</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02013016034478031</v>
+        <v>-0.02011932204949677</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02008002365670276</v>
+        <v>0.02006908761202937</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02008002365670276</v>
+        <v>-0.02006908761202937</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02203736137865307</v>
+        <v>0.02202518130906505</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02203736137865307</v>
+        <v>-0.02202518130906505</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01753190414038845</v>
+        <v>0.01752224027530103</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01753190414038845</v>
+        <v>-0.01752224027530103</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02150050814737687</v>
+        <v>0.02148862973175136</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02150050814737687</v>
+        <v>-0.02148862973175136</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0144680731155751</v>
+        <v>0.01446001239354374</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0144680731155751</v>
+        <v>-0.01446001239354374</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01803079523249796</v>
+        <v>0.0180209657748371</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01803079523249796</v>
+        <v>-0.0180209657748371</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0189220303215592</v>
+        <v>0.01891155240266815</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0189220303215592</v>
+        <v>-0.01891155240266815</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0194286123433244</v>
+        <v>0.01941788697047325</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0194286123433244</v>
+        <v>-0.01941788697047325</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01591471873244987</v>
+        <v>0.01590601950413469</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01591471873244987</v>
+        <v>-0.01590601950413469</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02025257922201538</v>
+        <v>0.02024146526135799</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02025257922201538</v>
+        <v>-0.02024146526135799</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02030770025376642</v>
+        <v>0.0202965186197641</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02030770025376642</v>
+        <v>-0.0202965186197641</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01983013873454611</v>
+        <v>0.01981919141148076</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01983013873454611</v>
+        <v>-0.01981919141148076</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01838538961084638</v>
+        <v>0.01837530935697201</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01838538961084638</v>
+        <v>-0.01837530935697201</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01805399512784289</v>
+        <v>0.01859249277241617</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01805399512784289</v>
+        <v>-0.01859249277241617</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01956887611311505</v>
+        <v>0.01955811706912593</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01956887611311505</v>
+        <v>-0.01955811706912593</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0196720746224814</v>
+        <v>0.01966120472701237</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0196720746224814</v>
+        <v>-0.01966120472701237</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01867768241831038</v>
+        <v>0.01866749541125871</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01867768241831038</v>
+        <v>-0.01866749541125871</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01858988913252497</v>
+        <v>0.01857985293938046</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01858988913252497</v>
+        <v>-0.01857985293938046</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0156396141076933</v>
+        <v>0.01563124295502767</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.0156396141076933</v>
+        <v>-0.01563124295502767</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01917105632153537</v>
+        <v>0.01916065515189505</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01917105632153537</v>
+        <v>-0.01916065515189505</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01841127549784943</v>
+        <v>0.01840123571502589</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01841127549784943</v>
+        <v>-0.01840123571502589</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01806924666210236</v>
+        <v>0.01805908620154802</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01806924666210236</v>
+        <v>-0.01805908620154802</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01832322316126494</v>
+        <v>0.018313047362356</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01832322316126494</v>
+        <v>-0.018313047362356</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01796743558513869</v>
+        <v>0.01795764355943174</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01796743558513869</v>
+        <v>-0.01795764355943174</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0153780998010023</v>
+        <v>0.01536964486974104</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0153780998010023</v>
+        <v>-0.01536964486974104</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01789137060674667</v>
+        <v>0.01788161202140628</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01789137060674667</v>
+        <v>-0.01788161202140628</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01625128513891723</v>
+        <v>0.01624250237261012</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01625128513891723</v>
+        <v>-0.01624250237261012</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02057337821730269</v>
+        <v>0.02056196726259576</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02057337821730269</v>
+        <v>-0.02056196726259576</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02165278755221975</v>
+        <v>0.02164080867870613</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02165278755221975</v>
+        <v>-0.02164080867870613</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02131280687863897</v>
+        <v>0.02130097031579022</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02131280687863897</v>
+        <v>-0.02130097031579022</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01825808980480551</v>
+        <v>0.01824809780078689</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01825808980480551</v>
+        <v>-0.01824809780078689</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240930.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83.10%</t>
+          <t>83.11%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02793000798551479</v>
+        <v>0.02796819059317926</v>
       </c>
       <c r="C2" t="n">
         <v>0.02210610198979251</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005823905995722287</v>
+        <v>-0.005862088603386752</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03051585748248652</v>
+        <v>0.03055759861926879</v>
       </c>
       <c r="C3" t="n">
         <v>0.02208176946146032</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008434088021026204</v>
+        <v>-0.008475829157808468</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02528960872566139</v>
+        <v>0.02532406432415551</v>
       </c>
       <c r="C5" t="n">
         <v>0.02196010681979938</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003329501905862012</v>
+        <v>-0.003363957504356127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02706994759611315</v>
+        <v>0.02710733822084475</v>
       </c>
       <c r="C7" t="n">
         <v>0.02186277670647063</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.005207170889642523</v>
+        <v>-0.005244561514374121</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02021671015200081</v>
+        <v>0.02010599904643795</v>
       </c>
       <c r="C15" t="n">
         <v>0.02080431172402046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005876015720196574</v>
+        <v>0.0006983126775825105</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02215498126075481</v>
+        <v>0.02218537675736633</v>
       </c>
       <c r="C19" t="n">
         <v>0.02045149006320374</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001703491197551064</v>
+        <v>-0.001733886694162586</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02274262272460804</v>
+        <v>0.02277382307791482</v>
       </c>
       <c r="C22" t="n">
         <v>0.02031766115737671</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.002424961567231331</v>
+        <v>-0.002456161920538102</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02157864178394787</v>
+        <v>0.02160823936920691</v>
       </c>
       <c r="C24" t="n">
         <v>0.02005000334572265</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001528638438225226</v>
+        <v>-0.001558236023484264</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02020995316966476</v>
+        <v>0.02023777634190093</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02020995316966476</v>
+        <v>-0.02023777634190093</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01964500337783388</v>
+        <v>0.0196718842418551</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01964500337783388</v>
+        <v>-0.0196718842418551</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01933176603800958</v>
+        <v>0.01935830326489481</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01933176603800958</v>
+        <v>-0.01935830326489481</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02315542836528331</v>
+        <v>0.02318692059426623</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02315542836528331</v>
+        <v>-0.02318692059426623</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02297300399586636</v>
+        <v>0.02300438047197201</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02297300399586636</v>
+        <v>-0.02300438047197201</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01896206344492522</v>
+        <v>0.01898797146962288</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01896206344492522</v>
+        <v>-0.01898797146962288</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0211695287294047</v>
+        <v>0.02119849911989154</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0211695287294047</v>
+        <v>-0.02119849911989154</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01956541836763285</v>
+        <v>0.01959220713569783</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01956541836763285</v>
+        <v>-0.01959220713569783</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01950528855788649</v>
+        <v>0.01953196677931549</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01950528855788649</v>
+        <v>-0.01953196677931549</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01748310838341565</v>
+        <v>0.01750696495198678</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01748310838341565</v>
+        <v>-0.01750696495198678</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02011932204949677</v>
+        <v>0.02014668425711183</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02011932204949677</v>
+        <v>-0.02014668425711183</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02006908761202937</v>
+        <v>0.02009650641415899</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02006908761202937</v>
+        <v>-0.02009650641415899</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02202518130906505</v>
+        <v>0.02205545082360541</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02202518130906505</v>
+        <v>-0.02205545082360541</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01752224027530103</v>
+        <v>0.01754629526505206</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01752224027530103</v>
+        <v>-0.01754629526505206</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02148862973175136</v>
+        <v>0.0215181569144818</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02148862973175136</v>
+        <v>-0.0215181569144818</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01446001239354374</v>
+        <v>0.01434668558204544</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01446001239354374</v>
+        <v>-0.01434668558204544</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0180209657748371</v>
+        <v>0.01804559587365463</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0180209657748371</v>
+        <v>-0.01804559587365463</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01891155240266815</v>
+        <v>0.01893756253614731</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01891155240266815</v>
+        <v>-0.01893756253614731</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01941788697047325</v>
+        <v>0.01944456038753197</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01941788697047325</v>
+        <v>-0.01944456038753197</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01590601950413469</v>
+        <v>0.01592778238483075</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01590601950413469</v>
+        <v>-0.01592778238483075</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02024146526135799</v>
+        <v>0.02026920362230927</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02024146526135799</v>
+        <v>-0.02026920362230927</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0202965186197641</v>
+        <v>0.02032436990035145</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0202965186197641</v>
+        <v>-0.02032436990035145</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01981919141148076</v>
+        <v>0.01984641637309241</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01981919141148076</v>
+        <v>-0.01984641637309241</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01837530935697201</v>
+        <v>0.01840048132203532</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01837530935697201</v>
+        <v>-0.01840048132203532</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01859249277241617</v>
+        <v>0.01751964842795147</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01859249277241617</v>
+        <v>-0.01751964842795147</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01955811706912593</v>
+        <v>0.01958493929332728</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01955811706912593</v>
+        <v>-0.01958493929332728</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01966120472701237</v>
+        <v>0.01968822251355001</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01966120472701237</v>
+        <v>-0.01968822251355001</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01866749541125871</v>
+        <v>0.01869301405906981</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01866749541125871</v>
+        <v>-0.01869301405906981</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01857985293938046</v>
+        <v>0.01860514870785956</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01857985293938046</v>
+        <v>-0.01860514870785956</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01563124295502767</v>
+        <v>0.01565245193948342</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01563124295502767</v>
+        <v>-0.01565245193948342</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01916065515189505</v>
+        <v>0.01918679294998411</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01916065515189505</v>
+        <v>-0.01918679294998411</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01840123571502589</v>
+        <v>0.01842638845755901</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01840123571502589</v>
+        <v>-0.01842638845755901</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01805908620154802</v>
+        <v>0.01808407886624914</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01805908620154802</v>
+        <v>-0.01808407886624914</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.018313047362356</v>
+        <v>0.01833826384290691</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.018313047362356</v>
+        <v>-0.01833826384290691</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01795764355943174</v>
+        <v>0.01798218421730784</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01795764355943174</v>
+        <v>-0.01798218421730784</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01536964486974104</v>
+        <v>0.01539072296786162</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01536964486974104</v>
+        <v>-0.01539072296786162</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01788161202140628</v>
+        <v>0.017906056800713</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01788161202140628</v>
+        <v>-0.017906056800713</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01624250237261012</v>
+        <v>0.0162646250630068</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01624250237261012</v>
+        <v>-0.0162646250630068</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02056196726259576</v>
+        <v>0.02059026594657078</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02056196726259576</v>
+        <v>-0.02059026594657078</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02164080867870613</v>
+        <v>0.0216705613184053</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02164080867870613</v>
+        <v>-0.0216705613184053</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02130097031579022</v>
+        <v>0.0213303015705028</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02130097031579022</v>
+        <v>-0.0213303015705028</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01824809780078689</v>
+        <v>0.01827307702150464</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01824809780078689</v>
+        <v>-0.01827307702150464</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
